--- a/Data_preparation/datasets/final_data/COGNEX_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/COGNEX_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42099</v>
       </c>
       <c r="D2">
-        <v>32.50155454136809</v>
+        <v>22.81767259378528</v>
       </c>
       <c r="E2">
-        <v>32.94282531738281</v>
+        <v>20.67592430114746</v>
       </c>
       <c r="F2">
-        <v>34.21047339167337</v>
+        <v>24.17180914708917</v>
       </c>
       <c r="G2">
-        <v>32.26888374560449</v>
+        <v>20.65289510857373</v>
       </c>
       <c r="H2">
-        <v>450687724</v>
+        <v>167899010</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>4369607317</v>
@@ -885,22 +777,22 @@
         <v>42190</v>
       </c>
       <c r="D3">
-        <v>19.36546186976121</v>
+        <v>22.35593356154076</v>
       </c>
       <c r="E3">
-        <v>20.08906555175781</v>
+        <v>20.87998962402344</v>
       </c>
       <c r="F3">
-        <v>20.242831549833</v>
+        <v>22.48046651271329</v>
       </c>
       <c r="G3">
-        <v>19.17551655018982</v>
+        <v>20.36802141124588</v>
       </c>
       <c r="H3">
-        <v>174270076</v>
+        <v>167899010</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>4177789374</v>
@@ -1010,22 +902,22 @@
         <v>42281</v>
       </c>
       <c r="D4">
-        <v>68.44008297911779</v>
+        <v>15.89887802760023</v>
       </c>
       <c r="E4">
-        <v>76.90107727050781</v>
+        <v>17.37784194946289</v>
       </c>
       <c r="F4">
-        <v>78.55369160257169</v>
+        <v>17.46103389045067</v>
       </c>
       <c r="G4">
-        <v>67.96507621452463</v>
+        <v>15.67241068534147</v>
       </c>
       <c r="H4">
-        <v>952000000</v>
+        <v>167899010</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>3081676579</v>
@@ -1135,22 +1027,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>15.29971221972721</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>14.93388938903809</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>15.50809242495885</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>12.97048822341249</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>167899010</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>2865222742</v>
@@ -1260,22 +1152,22 @@
         <v>42463</v>
       </c>
       <c r="D6">
-        <v>113.053060611574</v>
+        <v>18.05545739094218</v>
       </c>
       <c r="E6">
-        <v>116.8595962524414</v>
+        <v>16.48279571533203</v>
       </c>
       <c r="F6">
-        <v>120.0499278661556</v>
+        <v>18.32916559024523</v>
       </c>
       <c r="G6">
-        <v>105.6586426163339</v>
+        <v>16.3992913989559</v>
       </c>
       <c r="H6">
-        <v>2168962480</v>
+        <v>167899010</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>3324109679</v>
@@ -1385,22 +1277,22 @@
         <v>42554</v>
       </c>
       <c r="D7">
-        <v>13.19996774679334</v>
+        <v>19.9551433668408</v>
       </c>
       <c r="E7">
-        <v>13.69067287445068</v>
+        <v>20.99147224426269</v>
       </c>
       <c r="F7">
-        <v>14.06851604737382</v>
+        <v>21.07977047620426</v>
       </c>
       <c r="G7">
-        <v>12.75833331909089</v>
+        <v>19.48577536611787</v>
       </c>
       <c r="H7">
-        <v>171080665</v>
+        <v>167899010</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3665756414</v>
@@ -1501,22 +1393,22 @@
         <v>42645</v>
       </c>
       <c r="D8">
-        <v>49.90532904401199</v>
+        <v>24.6066801136449</v>
       </c>
       <c r="E8">
-        <v>48.90722274780273</v>
+        <v>24.01559829711914</v>
       </c>
       <c r="F8">
-        <v>51.30454387702167</v>
+        <v>25.49097613610129</v>
       </c>
       <c r="G8">
-        <v>45.00807712847811</v>
+        <v>23.68049812291513</v>
       </c>
       <c r="H8">
-        <v>60498713</v>
+        <v>167899010</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>4498863643</v>
@@ -1626,22 +1518,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>29.55357674002671</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>31.48280715942383</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>31.66920697229829</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>29.059620257898</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>167899010</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>5450069266</v>
@@ -1751,22 +1643,22 @@
         <v>42827</v>
       </c>
       <c r="D10">
-        <v>39.22581140273195</v>
+        <v>39.74181048536277</v>
       </c>
       <c r="E10">
-        <v>39.47163009643555</v>
+        <v>39.80711364746094</v>
       </c>
       <c r="F10">
-        <v>39.55064372641578</v>
+        <v>40.52545198929624</v>
       </c>
       <c r="G10">
-        <v>38.41811614637533</v>
+        <v>37.06903569143721</v>
       </c>
       <c r="H10">
-        <v>2850792605</v>
+        <v>167899010</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>7224153044</v>
@@ -1876,22 +1768,22 @@
         <v>42918</v>
       </c>
       <c r="D11">
-        <v>102.0133622053498</v>
+        <v>39.95561458374878</v>
       </c>
       <c r="E11">
-        <v>96.09502410888672</v>
+        <v>44.38163757324219</v>
       </c>
       <c r="F11">
-        <v>103.6407392657914</v>
+        <v>45.08195798213794</v>
       </c>
       <c r="G11">
-        <v>95.4108561422248</v>
+        <v>39.43270739611498</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>167899010</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>7356277577</v>
@@ -2001,22 +1893,22 @@
         <v>43009</v>
       </c>
       <c r="D12">
-        <v>48.20000076293945</v>
+        <v>51.72128323898426</v>
       </c>
       <c r="E12">
-        <v>55.26399993896485</v>
+        <v>57.54337310791016</v>
       </c>
       <c r="F12">
-        <v>56.13949966430664</v>
+        <v>60.69272111453528</v>
       </c>
       <c r="G12">
-        <v>47.51850128173828</v>
+        <v>51.63717585293529</v>
       </c>
       <c r="H12">
-        <v>10664912097</v>
+        <v>167899010</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>9547195008</v>
@@ -2126,22 +2018,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>57.333231726735</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>58.3244743347168</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>65.45956827558983</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>56.92176930023987</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>167899010</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>10591272790</v>
@@ -2239,22 +2131,22 @@
         <v>43191</v>
       </c>
       <c r="D14">
-        <v>5.570000171661377</v>
+        <v>48.42455431848412</v>
       </c>
       <c r="E14">
-        <v>5.420000076293945</v>
+        <v>43.28634643554688</v>
       </c>
       <c r="F14">
-        <v>5.679999828338623</v>
+        <v>48.6398157209762</v>
       </c>
       <c r="G14">
-        <v>5.050000190734863</v>
+        <v>42.21003585283116</v>
       </c>
       <c r="H14">
-        <v>136895573</v>
+        <v>167899010</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>9022919505</v>
@@ -2364,22 +2256,22 @@
         <v>43282</v>
       </c>
       <c r="D15">
-        <v>41.31453722515696</v>
+        <v>41.584293711384</v>
       </c>
       <c r="E15">
-        <v>39.22719192504883</v>
+        <v>49.44399642944336</v>
       </c>
       <c r="F15">
-        <v>44.47537650641669</v>
+        <v>50.98970827940524</v>
       </c>
       <c r="G15">
-        <v>38.71281128826907</v>
+        <v>40.9660096861165</v>
       </c>
       <c r="H15">
-        <v>212968277</v>
+        <v>167899010</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>7715229998</v>
@@ -2480,22 +2372,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>52.56191488185687</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>40.16682815551758</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>53.5839001447547</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>33.90365300656529</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>167899010</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>9602828696</v>
@@ -2605,22 +2497,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>35.40921017724591</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>42.71259307861328</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>43.00360324369439</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>33.41908238295358</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>167899010</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>6658633201</v>
@@ -2718,22 +2610,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>48.63407925333165</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>47.38440322875977</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>53.84890338448178</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>42.25414749444127</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>167899010</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>8688486225</v>
@@ -2846,22 +2738,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>46.2137752278483</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>41.39768218994141</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>46.84400409228045</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>37.6068933907163</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>167899010</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>8230328227</v>
@@ -2974,22 +2866,22 @@
         <v>43737</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>46.65276375714611</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>48.48911666870117</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>50.9846700577199</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>43.4791678933651</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>167899010</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>8229255145</v>
@@ -3102,22 +2994,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>53.20790361109589</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>48.05115127563477</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>55.75328603207248</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>47.68348560522881</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>167899010</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>9577084356</v>
@@ -3230,22 +3122,22 @@
         <v>43919</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>38.35785542324881</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>52.13799285888672</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>55.28099444327352</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>37.82930459370862</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>167899010</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>7474066346</v>
@@ -3358,22 +3250,22 @@
         <v>44010</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>56.33830004501073</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>63.17863845825195</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>63.25421681233991</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>55.36515575273921</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>167899010</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>10067784555</v>
@@ -3474,22 +3366,22 @@
         <v>44101</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>62.24739702201942</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>62.3135871887207</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>67.07930083377447</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>59.66596609229513</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>167899010</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>10668365552</v>
@@ -3602,22 +3494,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>78.71029603509299</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>79.81820678710938</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>85.66876032354666</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>76.77631251740023</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>167899010</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>14020396596</v>
@@ -3730,22 +3622,22 @@
         <v>44290</v>
       </c>
       <c r="D26">
-        <v>483.1199951171875</v>
+        <v>81.50931238251138</v>
       </c>
       <c r="E26">
-        <v>508.3399963378906</v>
+        <v>83.75590515136719</v>
       </c>
       <c r="F26">
-        <v>525.4400024414062</v>
+        <v>86.42068678018498</v>
       </c>
       <c r="G26">
-        <v>480.5</v>
+        <v>80.0213139088283</v>
       </c>
       <c r="H26">
-        <v>418600000</v>
+        <v>167899010</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>14840936193</v>
@@ -3858,22 +3750,22 @@
         <v>44381</v>
       </c>
       <c r="D27">
-        <v>578.8200073242188</v>
+        <v>81.36927446076839</v>
       </c>
       <c r="E27">
-        <v>596.02001953125</v>
+        <v>87.99756622314453</v>
       </c>
       <c r="F27">
-        <v>616.4500122070312</v>
+        <v>88.47448932589549</v>
       </c>
       <c r="G27">
-        <v>543.1699829101562</v>
+        <v>78.71212403391024</v>
       </c>
       <c r="H27">
-        <v>52693110</v>
+        <v>167899010</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>14941018273</v>
@@ -3974,22 +3866,22 @@
         <v>44472</v>
       </c>
       <c r="D28">
-        <v>604.239990234375</v>
+        <v>78.29114299876429</v>
       </c>
       <c r="E28">
-        <v>690.3099975585938</v>
+        <v>85.31377410888672</v>
       </c>
       <c r="F28">
-        <v>690.969970703125</v>
+        <v>86.20987149603181</v>
       </c>
       <c r="G28">
-        <v>594.6799926757812</v>
+        <v>77.10285367332946</v>
       </c>
       <c r="H28">
-        <v>424926346</v>
+        <v>167899010</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>14373360720</v>
@@ -4102,22 +3994,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>75.95571055042126</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>64.78460693359375</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>76.42361348803976</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>60.08611475858883</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>167899010</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>13747890473</v>
@@ -4230,22 +4122,22 @@
         <v>44654</v>
       </c>
       <c r="D30">
-        <v>421.9831085808795</v>
+        <v>75.13080142263452</v>
       </c>
       <c r="E30">
-        <v>415.1985778808594</v>
+        <v>65.98825836181641</v>
       </c>
       <c r="F30">
-        <v>450.9733274615733</v>
+        <v>77.52132394477016</v>
       </c>
       <c r="G30">
-        <v>408.5746965536123</v>
+        <v>65.83214628178642</v>
       </c>
       <c r="H30">
-        <v>143182982</v>
+        <v>167899010</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>13575879135</v>
@@ -4358,22 +4250,22 @@
         <v>44745</v>
       </c>
       <c r="D31">
-        <v>47.91999816894531</v>
+        <v>41.64230086655685</v>
       </c>
       <c r="E31">
-        <v>61.5</v>
+        <v>49.81052398681641</v>
       </c>
       <c r="F31">
-        <v>61.63000106811523</v>
+        <v>50.10364127453335</v>
       </c>
       <c r="G31">
-        <v>43.40999984741211</v>
+        <v>41.28078966927892</v>
       </c>
       <c r="H31">
-        <v>136895573</v>
+        <v>167899010</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>7552398772</v>
@@ -4486,22 +4378,22 @@
         <v>44836</v>
       </c>
       <c r="D32">
-        <v>89.61000061035156</v>
+        <v>40.84834678296749</v>
       </c>
       <c r="E32">
-        <v>80.51000213623047</v>
+        <v>45.23159408569336</v>
       </c>
       <c r="F32">
-        <v>97.31400299072266</v>
+        <v>46.37632813993508</v>
       </c>
       <c r="G32">
-        <v>75.53500366210938</v>
+        <v>39.34160447294238</v>
       </c>
       <c r="H32">
-        <v>323270704</v>
+        <v>167899010</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>7187304075</v>
@@ -4614,22 +4506,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>46.59788476978674</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>53.63263702392578</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>53.69142085994539</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>46.03941590243409</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>167899010</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>8146740591</v>
@@ -4742,22 +4634,22 @@
         <v>45018</v>
       </c>
       <c r="D34">
-        <v>27.09000015258789</v>
+        <v>48.39275988647957</v>
       </c>
       <c r="E34">
-        <v>28.3700008392334</v>
+        <v>46.79340362548828</v>
       </c>
       <c r="F34">
-        <v>30.20000076293945</v>
+        <v>48.94223296355696</v>
       </c>
       <c r="G34">
-        <v>25.52000045776367</v>
+        <v>45.97900997260158</v>
       </c>
       <c r="H34">
-        <v>48253392</v>
+        <v>167899010</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>8549170593</v>
@@ -4870,22 +4762,22 @@
         <v>45109</v>
       </c>
       <c r="D35">
-        <v>62.68228996223018</v>
+        <v>54.83457106546705</v>
       </c>
       <c r="E35">
-        <v>70.53733825683594</v>
+        <v>53.66536712646485</v>
       </c>
       <c r="F35">
-        <v>71.47598872124311</v>
+        <v>58.46990058720208</v>
       </c>
       <c r="G35">
-        <v>59.77740581347258</v>
+        <v>52.62389588429162</v>
       </c>
       <c r="H35">
-        <v>1122466035</v>
+        <v>167899010</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>9669128187</v>
@@ -4998,22 +4890,22 @@
         <v>45200</v>
       </c>
       <c r="D36">
-        <v>91.69000244140624</v>
+        <v>41.66170302498773</v>
       </c>
       <c r="E36">
-        <v>79.90000152587891</v>
+        <v>35.41343307495117</v>
       </c>
       <c r="F36">
-        <v>92.63300323486328</v>
+        <v>42.26193127680494</v>
       </c>
       <c r="G36">
-        <v>77.51999664306641</v>
+        <v>33.77018493033809</v>
       </c>
       <c r="H36">
-        <v>55686229</v>
+        <v>167899010</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>7312119801</v>
@@ -5126,22 +5018,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>40.66092820202534</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>35.63253784179688</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>40.75952254273976</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>35.49450426034349</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>167899010</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>7185210920</v>
@@ -5254,22 +5146,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>41.97482885159913</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>41.03634643554688</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>42.08349198385204</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>37.83562837105549</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>167899010</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>7280702657</v>
@@ -5382,22 +5274,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>46.5042115042877</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>49.09657287597656</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>52.56954908286514</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>45.72254406462249</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>167899010</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>8026917739</v>
@@ -5510,22 +5402,22 @@
         <v>45564</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>39.85356052891638</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>39.88330078125</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>43.78934483033753</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>37.68243134482139</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>167899010</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>6906338625</v>
@@ -5638,22 +5530,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>35.68924167842574</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>39.63264083862305</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>41.15238744976228</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>35.29192047031056</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>167899010</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>6150537905</v>
@@ -5766,22 +5658,22 @@
         <v>45746</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>29.70170834603361</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>27.18258857727051</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>30.65758060697582</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>22.5725019172909</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>167899010</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>5097670077</v>
@@ -5894,22 +5786,22 @@
         <v>45837</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>31.47290653311684</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>40.69617462158203</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>42.06369277555218</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>31.44296017136102</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>167899010</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>5281025916</v>
